--- a/Defects/SauceDemo_Defect_Report.xlsx
+++ b/Defects/SauceDemo_Defect_Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhase\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhase\eclipse-workspace\Capstone_Project_SauceDemo_Testing\Defects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8F310A-9156-4BD4-B9BD-5A9EB39658AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60367EC-C57F-44A0-A68A-BB00C5425100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,6 @@
     <t>Defect identifier</t>
   </si>
   <si>
-    <t>DEF-003</t>
-  </si>
-  <si>
-    <t>DEF-004</t>
-  </si>
-  <si>
     <t>Defect summary</t>
   </si>
   <si>
@@ -161,6 +155,12 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>DEF-001</t>
+  </si>
+  <si>
+    <t>DEF-002</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -690,202 +690,202 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="311.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
